--- a/Team_names.xlsx
+++ b/Team_names.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84637B8A-40F3-4909-9357-1DA99B7664D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D79256-2E84-4BDE-AC52-E01B68E661EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$C$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -468,10 +468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,7 +496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,7 +511,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -525,7 +526,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -540,7 +541,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -555,7 +556,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -570,7 +571,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -585,7 +586,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -600,7 +601,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -615,7 +616,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -630,7 +631,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -675,7 +676,7 @@
         <v>Ja</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -765,7 +766,7 @@
         <v>Ja</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -780,7 +781,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -795,7 +796,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -810,7 +811,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -825,7 +826,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -840,7 +841,7 @@
         <v>Nein</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -856,11 +857,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C25">
-      <sortCondition ref="C1:C25"/>
-    </sortState>
+  <autoFilter ref="A1:D25" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Ja"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Team_names.xlsx
+++ b/Team_names.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D79256-2E84-4BDE-AC52-E01B68E661EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EDBD6-8A1E-41DA-A2B9-D6EE5141DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Fbref</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>Abweichung</t>
+  </si>
+  <si>
+    <t>Man Utd</t>
+  </si>
+  <si>
+    <t>Sheff Utd</t>
+  </si>
+  <si>
+    <t>Spurs</t>
+  </si>
+  <si>
+    <t>Transfermarkt.de</t>
   </si>
 </sst>
 </file>
@@ -159,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,9 +203,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,10 +488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,9 +499,11 @@
     <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +516,14 @@
       <c r="D1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -510,8 +537,15 @@
         <f>IF($A2=C2,"Nein","Ja")</f>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IF($A2=E2,"Nein","Ja")</f>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -525,8 +559,15 @@
         <f t="shared" ref="D3:D25" si="0">IF($A3=C3,"Nein","Ja")</f>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F25" si="1">IF($A3=E3,"Nein","Ja")</f>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -540,8 +581,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -555,8 +603,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -570,8 +625,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -585,8 +647,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -600,8 +669,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -615,8 +691,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -630,8 +713,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -645,8 +735,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -660,8 +757,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -675,8 +779,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -690,8 +801,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -705,8 +823,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -720,8 +845,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -735,8 +867,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -750,8 +889,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -765,8 +911,15 @@
         <f t="shared" si="0"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -780,8 +933,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -795,8 +955,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -810,8 +977,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -825,8 +999,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -840,8 +1021,15 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -855,10 +1043,17 @@
         <f t="shared" si="0"/>
         <v>Nein</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Nein</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:F25" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
       <filters>
         <filter val="Ja"/>
       </filters>

--- a/Team_names.xlsx
+++ b/Team_names.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EDBD6-8A1E-41DA-A2B9-D6EE5141DCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C3C65-86FB-4884-ADFE-C657C038081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>Fbref</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>Transfermarkt.de</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Lineups</t>
   </si>
 </sst>
 </file>
@@ -171,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -203,10 +233,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -487,23 +518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +553,14 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -544,8 +581,15 @@
         <f>IF($A2=E2,"Nein","Ja")</f>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>IF($A2=G2,"Nein","Ja")</f>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -566,8 +610,15 @@
         <f t="shared" ref="F3:F25" si="1">IF($A3=E3,"Nein","Ja")</f>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f t="shared" ref="H3:H25" si="2">IF($A3=G3,"Nein","Ja")</f>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -588,8 +639,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -610,8 +668,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -632,8 +697,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -654,8 +726,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -676,8 +755,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -698,8 +784,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -720,8 +813,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -742,8 +842,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -764,8 +871,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -786,8 +900,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -808,8 +929,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -830,8 +958,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -852,8 +987,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -874,8 +1016,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -896,8 +1045,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -918,8 +1074,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -940,8 +1103,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -962,8 +1132,15 @@
         <f t="shared" si="1"/>
         <v>Ja</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -984,8 +1161,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Nein</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1006,8 +1190,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1219,15 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1050,15 +1248,16 @@
         <f t="shared" si="1"/>
         <v>Nein</v>
       </c>
+      <c r="G25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Ja</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Ja"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Team_names.xlsx
+++ b/Team_names.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\PycharmProjects\Masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C3C65-86FB-4884-ADFE-C657C038081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DEB59B-D6F8-4687-8D61-D140B64BBDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28965" yWindow="-60" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$25</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="61">
   <si>
     <t>Fbref</t>
   </si>
@@ -180,6 +181,48 @@
   </si>
   <si>
     <t>Lineups</t>
+  </si>
+  <si>
+    <t>Liverpool2019-08-09</t>
+  </si>
+  <si>
+    <t>Norwich City2019-08-09</t>
+  </si>
+  <si>
+    <t>West Ham2019-08-10</t>
+  </si>
+  <si>
+    <t>Manchester City2019-08-10</t>
+  </si>
+  <si>
+    <t>Crystal Palace2019-08-10</t>
+  </si>
+  <si>
+    <t>Everton2019-08-10</t>
+  </si>
+  <si>
+    <t>Bournemouth2019-08-10</t>
+  </si>
+  <si>
+    <t>Sheffield Utd2019-08-10</t>
+  </si>
+  <si>
+    <t>Burnley2019-08-10</t>
+  </si>
+  <si>
+    <t>Southampton2019-08-10</t>
+  </si>
+  <si>
+    <t>Watford2019-08-10</t>
+  </si>
+  <si>
+    <t>Brighton2019-08-10</t>
+  </si>
+  <si>
+    <t>Tottenham2019-08-10</t>
+  </si>
+  <si>
+    <t>Leicester City2019-08-11</t>
   </si>
 </sst>
 </file>
@@ -521,7 +564,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,4 +1304,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9942DDAC-0A23-4E37-A702-C861843642E6}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <f>IF(A3=B3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>